--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Mas1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H2">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I2">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J2">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6774196666666666</v>
+        <v>1.316251</v>
       </c>
       <c r="N2">
-        <v>2.032259</v>
+        <v>3.948753</v>
       </c>
       <c r="O2">
-        <v>0.1470994981014133</v>
+        <v>0.2348117009309627</v>
       </c>
       <c r="P2">
-        <v>0.1470994981014133</v>
+        <v>0.2348117009309626</v>
       </c>
       <c r="Q2">
-        <v>0.3172758234668889</v>
+        <v>0.1587771643783333</v>
       </c>
       <c r="R2">
-        <v>2.855482411202</v>
+        <v>1.428994479405</v>
       </c>
       <c r="S2">
-        <v>0.08901681293182706</v>
+        <v>0.02346560136024855</v>
       </c>
       <c r="T2">
-        <v>0.08901681293182705</v>
+        <v>0.02346560136024855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H3">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I3">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J3">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.187152999999999</v>
       </c>
       <c r="O3">
-        <v>0.664986891572823</v>
+        <v>0.5463119680169907</v>
       </c>
       <c r="P3">
-        <v>0.664986891572823</v>
+        <v>0.5463119680169907</v>
       </c>
       <c r="Q3">
-        <v>1.434296284770444</v>
+        <v>0.369410318156111</v>
       </c>
       <c r="R3">
-        <v>12.908666562934</v>
+        <v>3.324692863405</v>
       </c>
       <c r="S3">
-        <v>0.4024147906231803</v>
+        <v>0.05459497464987339</v>
       </c>
       <c r="T3">
-        <v>0.4024147906231802</v>
+        <v>0.05459497464987339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H4">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I4">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J4">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.865376</v>
+        <v>1.226924333333334</v>
       </c>
       <c r="N4">
-        <v>2.596128</v>
+        <v>3.680773</v>
       </c>
       <c r="O4">
-        <v>0.1879136103257636</v>
+        <v>0.2188763310520467</v>
       </c>
       <c r="P4">
-        <v>0.1879136103257636</v>
+        <v>0.2188763310520466</v>
       </c>
       <c r="Q4">
-        <v>0.4053069264426667</v>
+        <v>0.1480018374561111</v>
       </c>
       <c r="R4">
-        <v>3.647762337984001</v>
+        <v>1.332016537105</v>
       </c>
       <c r="S4">
-        <v>0.1137153485471479</v>
+        <v>0.0218731209360439</v>
       </c>
       <c r="T4">
-        <v>0.1137153485471479</v>
+        <v>0.02187312093604389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3056003333333333</v>
+        <v>0.4683593333333333</v>
       </c>
       <c r="H5">
-        <v>0.916801</v>
+        <v>1.405078</v>
       </c>
       <c r="I5">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="J5">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6774196666666666</v>
+        <v>1.316251</v>
       </c>
       <c r="N5">
-        <v>2.032259</v>
+        <v>3.948753</v>
       </c>
       <c r="O5">
-        <v>0.1470994981014133</v>
+        <v>0.2348117009309627</v>
       </c>
       <c r="P5">
-        <v>0.1470994981014133</v>
+        <v>0.2348117009309626</v>
       </c>
       <c r="Q5">
-        <v>0.2070196759398889</v>
+        <v>0.6164784408593333</v>
       </c>
       <c r="R5">
-        <v>1.863177083459</v>
+        <v>5.548305967734001</v>
       </c>
       <c r="S5">
-        <v>0.0580826851695863</v>
+        <v>0.09110905461142439</v>
       </c>
       <c r="T5">
-        <v>0.0580826851695863</v>
+        <v>0.09110905461142436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3056003333333333</v>
+        <v>0.4683593333333333</v>
       </c>
       <c r="H6">
-        <v>0.916801</v>
+        <v>1.405078</v>
       </c>
       <c r="I6">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="J6">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.187152999999999</v>
       </c>
       <c r="O6">
-        <v>0.664986891572823</v>
+        <v>0.5463119680169907</v>
       </c>
       <c r="P6">
-        <v>0.664986891572823</v>
+        <v>0.5463119680169907</v>
       </c>
       <c r="Q6">
-        <v>0.9358656730614442</v>
+        <v>1.434296284770444</v>
       </c>
       <c r="R6">
-        <v>8.422791057552999</v>
+        <v>12.908666562934</v>
       </c>
       <c r="S6">
-        <v>0.2625721009496428</v>
+        <v>0.2119739635273493</v>
       </c>
       <c r="T6">
-        <v>0.2625721009496428</v>
+        <v>0.2119739635273493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4683593333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.405078</v>
+      </c>
+      <c r="I7">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="J7">
+        <v>0.3880090057275787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.226924333333334</v>
+      </c>
+      <c r="N7">
+        <v>3.680773</v>
+      </c>
+      <c r="O7">
+        <v>0.2188763310520467</v>
+      </c>
+      <c r="P7">
+        <v>0.2188763310520466</v>
+      </c>
+      <c r="Q7">
+        <v>0.5746414628104446</v>
+      </c>
+      <c r="R7">
+        <v>5.171773165294001</v>
+      </c>
+      <c r="S7">
+        <v>0.08492598758880497</v>
+      </c>
+      <c r="T7">
+        <v>0.08492598758880497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.618096</v>
+      </c>
+      <c r="H8">
+        <v>1.854288</v>
+      </c>
+      <c r="I8">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J8">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.316251</v>
+      </c>
+      <c r="N8">
+        <v>3.948753</v>
+      </c>
+      <c r="O8">
+        <v>0.2348117009309627</v>
+      </c>
+      <c r="P8">
+        <v>0.2348117009309626</v>
+      </c>
+      <c r="Q8">
+        <v>0.813569478096</v>
+      </c>
+      <c r="R8">
+        <v>7.322125302863999</v>
+      </c>
+      <c r="S8">
+        <v>0.1202370449592897</v>
+      </c>
+      <c r="T8">
+        <v>0.1202370449592897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3056003333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.916801</v>
-      </c>
-      <c r="I7">
-        <v>0.3948530478978448</v>
-      </c>
-      <c r="J7">
-        <v>0.3948530478978448</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.865376</v>
-      </c>
-      <c r="N7">
-        <v>2.596128</v>
-      </c>
-      <c r="O7">
-        <v>0.1879136103257636</v>
-      </c>
-      <c r="P7">
-        <v>0.1879136103257636</v>
-      </c>
-      <c r="Q7">
-        <v>0.2644591940586666</v>
-      </c>
-      <c r="R7">
-        <v>2.380132746528</v>
-      </c>
-      <c r="S7">
-        <v>0.07419826177861569</v>
-      </c>
-      <c r="T7">
-        <v>0.07419826177861569</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.618096</v>
+      </c>
+      <c r="H9">
+        <v>1.854288</v>
+      </c>
+      <c r="I9">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J9">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.062384333333333</v>
+      </c>
+      <c r="N9">
+        <v>9.187152999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.5463119680169907</v>
+      </c>
+      <c r="P9">
+        <v>0.5463119680169907</v>
+      </c>
+      <c r="Q9">
+        <v>1.892847506896</v>
+      </c>
+      <c r="R9">
+        <v>17.035627562064</v>
+      </c>
+      <c r="S9">
+        <v>0.279743029839768</v>
+      </c>
+      <c r="T9">
+        <v>0.279743029839768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.618096</v>
+      </c>
+      <c r="H10">
+        <v>1.854288</v>
+      </c>
+      <c r="I10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.226924333333334</v>
+      </c>
+      <c r="N10">
+        <v>3.680773</v>
+      </c>
+      <c r="O10">
+        <v>0.2188763310520467</v>
+      </c>
+      <c r="P10">
+        <v>0.2188763310520466</v>
+      </c>
+      <c r="Q10">
+        <v>0.758357022736</v>
+      </c>
+      <c r="R10">
+        <v>6.825213204624</v>
+      </c>
+      <c r="S10">
+        <v>0.1120772225271978</v>
+      </c>
+      <c r="T10">
+        <v>0.1120772225271978</v>
       </c>
     </row>
   </sheetData>
